--- a/file/map8/case.xlsx
+++ b/file/map8/case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\order\file\map8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AB078-FC73-43FE-BB2A-1DD0411EC789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84321E1D-42FC-4849-9490-42482038ED20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Beijing</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>百万</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易额</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1144,17 +1148,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFE6E9D-7A91-4483-946E-4D85C1A02A07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3216,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/file/map8/case.xlsx
+++ b/file/map8/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\order\file\map8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B2EE5-1961-48B0-9EBD-660B5B311587}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A808EC-C572-49B7-9322-5F5AD8A48E5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="16457" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Beijing</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -81,6 +81,102 @@
   </si>
   <si>
     <t>贸易额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghtryty</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>terte</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>erter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rete</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ertre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5′</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5g</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5hh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5h5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5j5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>j5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>j5j5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h6j</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6j</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>j6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6a</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1033,111 +1129,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16267D53-B2A0-4290-BC95-EDA50EB2CFFA}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.92578125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>12321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>555</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>3232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>232</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
